--- a/storage/app/xlsx/invoices.xlsx
+++ b/storage/app/xlsx/invoices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pufflex\storage\app\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\afroline-store\storage\app\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A067FCA-4A5C-47DA-9E4C-731743BAC7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF024315-6BCE-4262-998D-6097BFF95F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVOICE" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Cellphone Number:</t>
   </si>
   <si>
-    <t>Your contact at 2HEX:</t>
-  </si>
-  <si>
     <t>Company Name:</t>
   </si>
   <si>
@@ -78,13 +75,17 @@
     <t>Guangzhou，China</t>
   </si>
   <si>
-    <t>91330782MA28D6BA7K</t>
+    <t>086-13226604307</t>
   </si>
   <si>
-    <t>david@pufflex.com</t>
+    <t>rayen@yafu-pet-toys.com</t>
   </si>
   <si>
-    <t>086-13226604307</t>
+    <t>91440101MA5ANR2U2T
+91440101MA5ANR2U2T</t>
+  </si>
+  <si>
+    <t>Your contact at YAFU:</t>
   </si>
 </sst>
 </file>
@@ -224,59 +225,61 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -492,10 +495,10 @@
   <dimension ref="B1:O996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.69921875" customWidth="1"/>
     <col min="2" max="2" width="4.19921875" customWidth="1"/>
@@ -511,1087 +514,687 @@
     <col min="15" max="15" width="5.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O1" s="1"/>
-    </row>
+    <row r="1" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="4"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="2:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="7"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
     </row>
     <row r="4" spans="2:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="8" t="s">
+      <c r="B4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="9" t="s">
-        <v>0</v>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>4</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
-        <v>1</v>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="9" t="s">
-        <v>2</v>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
-        <v>3</v>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>5</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="14" t="s">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="9" t="s">
-        <v>11</v>
+      <c r="N11" s="22" t="s">
+        <v>17</v>
       </c>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
-        <v>4</v>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
+        <v>8</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="9" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="7"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="6"/>
     </row>
     <row r="13" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="5"/>
     </row>
     <row r="14" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="5"/>
     </row>
     <row r="15" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="6"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="5"/>
     </row>
     <row r="16" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="6"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="5"/>
     </row>
     <row r="17" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="5"/>
     </row>
     <row r="18" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="7"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="6"/>
     </row>
     <row r="19" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="7"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="6"/>
     </row>
     <row r="20" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="7"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="6"/>
     </row>
     <row r="21" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="7"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="6"/>
     </row>
     <row r="22" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="19"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="18"/>
     </row>
     <row r="23" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="9"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="8"/>
     </row>
     <row r="24" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="9"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="8"/>
     </row>
     <row r="25" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="6"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="5"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="6"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="5"/>
     </row>
     <row r="27" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="6"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="5"/>
     </row>
     <row r="28" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="6"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="5"/>
     </row>
     <row r="29" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="15:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O40" s="1"/>
-    </row>
-    <row r="41" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O41" s="1"/>
-    </row>
-    <row r="42" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O42" s="1"/>
-    </row>
-    <row r="43" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O43" s="1"/>
-    </row>
-    <row r="44" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O44" s="1"/>
-    </row>
-    <row r="45" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O45" s="1"/>
-    </row>
-    <row r="46" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O46" s="1"/>
-    </row>
-    <row r="47" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O47" s="1"/>
-    </row>
-    <row r="48" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O48" s="1"/>
-    </row>
-    <row r="49" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O49" s="1"/>
-    </row>
-    <row r="50" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O50" s="1"/>
-    </row>
-    <row r="51" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O51" s="1"/>
-    </row>
-    <row r="52" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O52" s="1"/>
-    </row>
-    <row r="53" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O53" s="1"/>
-    </row>
-    <row r="54" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O54" s="1"/>
-    </row>
-    <row r="55" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O55" s="1"/>
-    </row>
-    <row r="56" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O56" s="1"/>
-    </row>
-    <row r="57" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O57" s="1"/>
-    </row>
-    <row r="58" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O58" s="1"/>
-    </row>
-    <row r="59" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O59" s="1"/>
-    </row>
-    <row r="60" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O60" s="1"/>
-    </row>
-    <row r="61" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O61" s="1"/>
-    </row>
-    <row r="62" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O62" s="1"/>
-    </row>
-    <row r="63" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O63" s="1"/>
-    </row>
-    <row r="64" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O64" s="1"/>
-    </row>
-    <row r="65" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O65" s="1"/>
-    </row>
-    <row r="66" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O66" s="1"/>
-    </row>
-    <row r="67" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O67" s="1"/>
-    </row>
-    <row r="68" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O68" s="1"/>
-    </row>
-    <row r="69" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O69" s="1"/>
-    </row>
-    <row r="70" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O70" s="1"/>
-    </row>
-    <row r="71" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O71" s="1"/>
-    </row>
-    <row r="72" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O72" s="1"/>
-    </row>
-    <row r="73" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O73" s="1"/>
-    </row>
-    <row r="74" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O74" s="1"/>
-    </row>
-    <row r="75" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O75" s="1"/>
-    </row>
-    <row r="76" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O76" s="1"/>
-    </row>
-    <row r="77" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O77" s="1"/>
-    </row>
-    <row r="78" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O78" s="1"/>
-    </row>
-    <row r="79" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O79" s="1"/>
-    </row>
-    <row r="80" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O80" s="1"/>
-    </row>
-    <row r="81" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O81" s="1"/>
-    </row>
-    <row r="82" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O82" s="1"/>
-    </row>
-    <row r="83" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O83" s="1"/>
-    </row>
-    <row r="84" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O84" s="1"/>
-    </row>
-    <row r="85" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O85" s="1"/>
-    </row>
-    <row r="86" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O86" s="1"/>
-    </row>
-    <row r="87" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O87" s="1"/>
-    </row>
-    <row r="88" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O88" s="1"/>
-    </row>
-    <row r="89" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O89" s="1"/>
-    </row>
-    <row r="90" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O90" s="1"/>
-    </row>
-    <row r="91" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O91" s="1"/>
-    </row>
-    <row r="92" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O92" s="1"/>
-    </row>
-    <row r="93" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O93" s="1"/>
-    </row>
-    <row r="94" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O94" s="1"/>
-    </row>
-    <row r="95" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O95" s="1"/>
-    </row>
-    <row r="96" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O96" s="1"/>
-    </row>
-    <row r="97" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O97" s="1"/>
-    </row>
-    <row r="98" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O98" s="1"/>
-    </row>
-    <row r="99" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O99" s="1"/>
-    </row>
-    <row r="100" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O100" s="1"/>
-    </row>
-    <row r="101" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O101" s="1"/>
-    </row>
-    <row r="102" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O102" s="1"/>
-    </row>
-    <row r="103" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O103" s="1"/>
-    </row>
-    <row r="104" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O104" s="1"/>
-    </row>
-    <row r="105" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O105" s="1"/>
-    </row>
-    <row r="106" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O106" s="1"/>
-    </row>
-    <row r="107" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O107" s="1"/>
-    </row>
-    <row r="108" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O108" s="1"/>
-    </row>
-    <row r="109" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O109" s="1"/>
-    </row>
-    <row r="110" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O110" s="1"/>
-    </row>
-    <row r="111" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O111" s="1"/>
-    </row>
-    <row r="112" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O112" s="1"/>
-    </row>
-    <row r="113" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O113" s="1"/>
-    </row>
-    <row r="114" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O114" s="1"/>
-    </row>
-    <row r="115" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O115" s="1"/>
-    </row>
-    <row r="116" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O116" s="1"/>
-    </row>
-    <row r="117" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O117" s="1"/>
-    </row>
-    <row r="118" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O118" s="1"/>
-    </row>
-    <row r="119" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O119" s="1"/>
-    </row>
-    <row r="120" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O120" s="1"/>
-    </row>
-    <row r="121" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O121" s="1"/>
-    </row>
-    <row r="122" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O122" s="1"/>
-    </row>
-    <row r="123" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O123" s="1"/>
-    </row>
-    <row r="124" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O124" s="1"/>
-    </row>
-    <row r="125" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O125" s="1"/>
-    </row>
-    <row r="126" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O126" s="1"/>
-    </row>
-    <row r="127" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O127" s="1"/>
-    </row>
-    <row r="128" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O128" s="1"/>
-    </row>
-    <row r="129" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O129" s="1"/>
-    </row>
-    <row r="130" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O130" s="1"/>
-    </row>
-    <row r="131" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O131" s="1"/>
-    </row>
-    <row r="132" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O132" s="1"/>
-    </row>
-    <row r="133" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O133" s="1"/>
-    </row>
-    <row r="134" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O134" s="1"/>
-    </row>
-    <row r="135" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O135" s="1"/>
-    </row>
-    <row r="136" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O136" s="1"/>
-    </row>
-    <row r="137" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O137" s="1"/>
-    </row>
-    <row r="138" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O138" s="1"/>
-    </row>
-    <row r="139" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O139" s="1"/>
-    </row>
-    <row r="140" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O140" s="1"/>
-    </row>
-    <row r="141" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O141" s="1"/>
-    </row>
-    <row r="142" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O142" s="1"/>
-    </row>
-    <row r="143" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O143" s="1"/>
-    </row>
-    <row r="144" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O144" s="1"/>
-    </row>
-    <row r="145" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O145" s="1"/>
-    </row>
-    <row r="146" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O146" s="1"/>
-    </row>
-    <row r="147" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O147" s="1"/>
-    </row>
-    <row r="148" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O148" s="1"/>
-    </row>
-    <row r="149" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O149" s="1"/>
-    </row>
-    <row r="150" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O150" s="1"/>
-    </row>
-    <row r="151" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O151" s="1"/>
-    </row>
-    <row r="152" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O152" s="1"/>
-    </row>
-    <row r="153" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O153" s="1"/>
-    </row>
-    <row r="154" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O154" s="1"/>
-    </row>
-    <row r="155" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O155" s="1"/>
-    </row>
-    <row r="156" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O156" s="1"/>
-    </row>
-    <row r="157" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O157" s="1"/>
-    </row>
-    <row r="158" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O158" s="1"/>
-    </row>
-    <row r="159" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O159" s="1"/>
-    </row>
-    <row r="160" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O160" s="1"/>
-    </row>
-    <row r="161" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O161" s="1"/>
-    </row>
-    <row r="162" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O162" s="1"/>
-    </row>
-    <row r="163" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O163" s="1"/>
-    </row>
-    <row r="164" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O164" s="1"/>
-    </row>
-    <row r="165" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O165" s="1"/>
-    </row>
-    <row r="166" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O166" s="1"/>
-    </row>
-    <row r="167" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O167" s="1"/>
-    </row>
-    <row r="168" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O168" s="1"/>
-    </row>
-    <row r="169" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O169" s="1"/>
-    </row>
-    <row r="170" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O170" s="1"/>
-    </row>
-    <row r="171" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O171" s="1"/>
-    </row>
-    <row r="172" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O172" s="1"/>
-    </row>
-    <row r="173" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O173" s="1"/>
-    </row>
-    <row r="174" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O174" s="1"/>
-    </row>
-    <row r="175" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O175" s="1"/>
-    </row>
-    <row r="176" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O176" s="1"/>
-    </row>
-    <row r="177" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O177" s="1"/>
-    </row>
-    <row r="178" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O178" s="1"/>
-    </row>
-    <row r="179" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O179" s="1"/>
-    </row>
-    <row r="180" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O180" s="1"/>
-    </row>
-    <row r="181" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O181" s="1"/>
-    </row>
-    <row r="182" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O182" s="1"/>
-    </row>
-    <row r="183" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O183" s="1"/>
-    </row>
-    <row r="184" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O184" s="1"/>
-    </row>
-    <row r="185" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O185" s="1"/>
-    </row>
-    <row r="186" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O186" s="1"/>
-    </row>
-    <row r="187" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O187" s="1"/>
-    </row>
-    <row r="188" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O188" s="1"/>
-    </row>
-    <row r="189" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O189" s="1"/>
-    </row>
-    <row r="190" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O190" s="1"/>
-    </row>
-    <row r="191" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O191" s="1"/>
-    </row>
-    <row r="192" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O192" s="1"/>
-    </row>
-    <row r="193" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O193" s="1"/>
-    </row>
-    <row r="194" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O194" s="1"/>
-    </row>
-    <row r="195" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O195" s="1"/>
-    </row>
-    <row r="196" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O196" s="1"/>
-    </row>
-    <row r="197" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O197" s="1"/>
-    </row>
-    <row r="198" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O198" s="1"/>
-    </row>
-    <row r="199" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O199" s="1"/>
-    </row>
-    <row r="200" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O200" s="1"/>
-    </row>
-    <row r="201" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O201" s="1"/>
-    </row>
-    <row r="202" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O202" s="1"/>
-    </row>
-    <row r="203" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O203" s="1"/>
-    </row>
-    <row r="204" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O204" s="1"/>
-    </row>
-    <row r="205" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O205" s="1"/>
-    </row>
-    <row r="206" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O206" s="1"/>
-    </row>
-    <row r="207" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O207" s="1"/>
-    </row>
-    <row r="208" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O208" s="1"/>
-    </row>
-    <row r="209" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O209" s="1"/>
-    </row>
-    <row r="210" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O210" s="1"/>
-    </row>
-    <row r="211" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O211" s="1"/>
-    </row>
-    <row r="212" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O212" s="1"/>
-    </row>
-    <row r="213" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O213" s="1"/>
-    </row>
-    <row r="214" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O214" s="1"/>
-    </row>
-    <row r="215" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O215" s="1"/>
-    </row>
-    <row r="216" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O216" s="1"/>
-    </row>
-    <row r="217" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O217" s="1"/>
-    </row>
-    <row r="218" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O218" s="1"/>
-    </row>
-    <row r="219" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O219" s="1"/>
-    </row>
-    <row r="220" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O220" s="1"/>
-    </row>
-    <row r="221" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O221" s="1"/>
-    </row>
-    <row r="222" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O222" s="1"/>
-    </row>
-    <row r="223" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O223" s="1"/>
-    </row>
-    <row r="224" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O224" s="1"/>
-    </row>
-    <row r="225" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O225" s="1"/>
-    </row>
-    <row r="226" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O226" s="1"/>
-    </row>
-    <row r="227" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O227" s="1"/>
-    </row>
-    <row r="228" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O228" s="1"/>
-    </row>
-    <row r="229" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O229" s="1"/>
-    </row>
-    <row r="230" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O230" s="1"/>
-    </row>
-    <row r="231" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O231" s="1"/>
-    </row>
-    <row r="232" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O232" s="1"/>
-    </row>
-    <row r="233" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O233" s="1"/>
-    </row>
-    <row r="234" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O234" s="1"/>
-    </row>
-    <row r="235" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O235" s="1"/>
-    </row>
-    <row r="236" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O236" s="1"/>
-    </row>
-    <row r="237" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O237" s="1"/>
-    </row>
-    <row r="238" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O238" s="1"/>
-    </row>
-    <row r="239" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
